--- a/EF5/GHANA_CALIBRATION/Calibration_runs.xlsx
+++ b/EF5/GHANA_CALIBRATION/Calibration_runs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vrobledodelgado/Documents/GitHub/FFWestAfrica/EF5/GHANA_CALIBRATION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C047CDAA-2DE3-2846-B4D0-854540F73726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00095C88-BBCA-2041-B2B4-E0562F372EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76240" yWindow="-7560" windowWidth="22760" windowHeight="27180" xr2:uid="{D77ED774-D6A3-9142-A5B2-458BA5571A69}"/>
+    <workbookView xWindow="12640" yWindow="760" windowWidth="17600" windowHeight="17760" activeTab="1" xr2:uid="{D77ED774-D6A3-9142-A5B2-458BA5571A69}"/>
   </bookViews>
   <sheets>
     <sheet name="1km" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>Corrida</t>
   </si>
@@ -111,9 +111,6 @@
     <t xml:space="preserve">run2 </t>
   </si>
   <si>
-    <t>Con esta corrida se espera establecer el baseline de ghana a 1 km. Para esto se corrigen los pixeles a 1km en el control file</t>
-  </si>
-  <si>
     <t>baseline2</t>
   </si>
   <si>
@@ -139,6 +136,15 @@
   </si>
   <si>
     <t>TIME_END=20221231230000</t>
+  </si>
+  <si>
+    <t>Con esta corrida se espera establecer el baseline de ghana a 1 km. Para esto se corrigen los pixeles a 1km en el control file.</t>
+  </si>
+  <si>
+    <t>Baseline 3</t>
+  </si>
+  <si>
+    <t>TIME_END=202212312300</t>
   </si>
 </sst>
 </file>
@@ -261,6 +267,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -271,21 +278,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480B83D1-A9F6-F540-B4A7-957ADA499904}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,7 +661,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -665,10 +673,10 @@
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -678,10 +686,10 @@
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -691,10 +699,10 @@
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -704,10 +712,10 @@
       <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -715,10 +723,10 @@
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -726,23 +734,23 @@
       <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>8</v>
@@ -750,14 +758,14 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
+      <c r="E9" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -765,12 +773,12 @@
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
@@ -778,12 +786,12 @@
       <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>11</v>
@@ -791,10 +799,10 @@
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -802,10 +810,10 @@
       <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5" t="s">
         <v>13</v>
@@ -813,16 +821,16 @@
       <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -982,10 +990,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE6A319-FA84-9545-878F-7D7A53683454}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,94 +1022,108 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="11" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="11" t="s">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="1"/>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="1"/>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EF5/GHANA_CALIBRATION/Calibration_runs.xlsx
+++ b/EF5/GHANA_CALIBRATION/Calibration_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vrobledodelgado/Documents/GitHub/FFWestAfrica/EF5/GHANA_CALIBRATION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00095C88-BBCA-2041-B2B4-E0562F372EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1CDA44-9B58-8C40-B4E5-A6DD699554C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12640" yWindow="760" windowWidth="17600" windowHeight="17760" activeTab="1" xr2:uid="{D77ED774-D6A3-9142-A5B2-458BA5571A69}"/>
+    <workbookView xWindow="51160" yWindow="-7560" windowWidth="24980" windowHeight="20200" activeTab="1" xr2:uid="{D77ED774-D6A3-9142-A5B2-458BA5571A69}"/>
   </bookViews>
   <sheets>
     <sheet name="1km" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
   <si>
     <t>Corrida</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>TIME_END=202212312300</t>
+  </si>
+  <si>
+    <t>#TIME_WARMEND=200301010000</t>
+  </si>
+  <si>
+    <t>TIME_STATE=200301010000</t>
+  </si>
+  <si>
+    <t>This simulation has results from 2001 to 2003-05</t>
+  </si>
+  <si>
+    <t>Baseline 3_2003</t>
   </si>
 </sst>
 </file>
@@ -250,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -268,6 +280,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,22 +296,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,7 +677,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -673,10 +689,10 @@
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -686,10 +702,10 @@
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -699,10 +715,10 @@
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -712,10 +728,10 @@
       <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -723,10 +739,10 @@
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -734,19 +750,19 @@
       <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -763,7 +779,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
@@ -776,7 +792,7 @@
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
@@ -789,7 +805,7 @@
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
@@ -802,7 +818,7 @@
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -813,7 +829,7 @@
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5" t="s">
         <v>13</v>
@@ -824,7 +840,7 @@
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
@@ -990,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE6A319-FA84-9545-878F-7D7A53683454}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1022,7 +1038,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
@@ -1090,7 +1106,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
@@ -1104,26 +1120,160 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>4</v>
       </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>5</v>
       </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
         <v>35</v>
       </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E15" s="6"/>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:E13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EF5/GHANA_CALIBRATION/Calibration_runs.xlsx
+++ b/EF5/GHANA_CALIBRATION/Calibration_runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vrobledodelgado/Documents/GitHub/FFWestAfrica/EF5/GHANA_CALIBRATION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1CDA44-9B58-8C40-B4E5-A6DD699554C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10396AD-4317-E84E-90D8-86514F65A7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51160" yWindow="-7560" windowWidth="24980" windowHeight="20200" activeTab="1" xr2:uid="{D77ED774-D6A3-9142-A5B2-458BA5571A69}"/>
+    <workbookView xWindow="65600" yWindow="-7560" windowWidth="24980" windowHeight="20200" activeTab="1" xr2:uid="{D77ED774-D6A3-9142-A5B2-458BA5571A69}"/>
   </bookViews>
   <sheets>
     <sheet name="1km" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>Corrida</t>
   </si>
@@ -157,6 +157,30 @@
   </si>
   <si>
     <t>Baseline 3_2003</t>
+  </si>
+  <si>
+    <t>TIME_BEGIN=200310010000</t>
+  </si>
+  <si>
+    <t>TIME_WARMEND=200401010000</t>
+  </si>
+  <si>
+    <t>TIME_STATE=200401010000</t>
+  </si>
+  <si>
+    <t>TIME_END=200412312300</t>
+  </si>
+  <si>
+    <t>TIME_BEGIN=200410010000</t>
+  </si>
+  <si>
+    <t>TIME_WARMEND=200501010000</t>
+  </si>
+  <si>
+    <t>TIME_STATE=200501010000</t>
+  </si>
+  <si>
+    <t>TIME_END=200512312300</t>
   </si>
 </sst>
 </file>
@@ -262,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -307,10 +331,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE6A319-FA84-9545-878F-7D7A53683454}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1151,7 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1140,7 +1165,7 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -1152,11 +1177,10 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
@@ -1165,22 +1189,18 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
       <c r="C14" t="s">
         <v>13</v>
       </c>
@@ -1253,9 +1273,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16" t="s">
+      <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
@@ -1269,6 +1287,74 @@
       <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
+        <v>2004</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <v>2005</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/EF5/GHANA_CALIBRATION/Calibration_runs.xlsx
+++ b/EF5/GHANA_CALIBRATION/Calibration_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vrobledodelgado/Documents/GitHub/FFWestAfrica/EF5/GHANA_CALIBRATION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10396AD-4317-E84E-90D8-86514F65A7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419A9BF6-4014-C34A-AD38-8C8ACC04ECBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="65600" yWindow="-7560" windowWidth="24980" windowHeight="20200" activeTab="1" xr2:uid="{D77ED774-D6A3-9142-A5B2-458BA5571A69}"/>
   </bookViews>
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -310,6 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -334,8 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,7 +701,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -714,10 +713,10 @@
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -727,10 +726,10 @@
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -740,10 +739,10 @@
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -753,10 +752,10 @@
       <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -764,10 +763,10 @@
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -775,19 +774,19 @@
       <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -799,12 +798,12 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
@@ -814,10 +813,10 @@
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
@@ -827,10 +826,10 @@
       <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
@@ -840,10 +839,10 @@
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -851,10 +850,10 @@
       <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5" t="s">
         <v>13</v>
@@ -862,16 +861,16 @@
       <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -1034,7 +1033,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1150,7 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1165,7 +1164,7 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -1177,7 +1176,7 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -1189,7 +1188,7 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
@@ -1198,7 +1197,7 @@
       <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
@@ -1289,30 +1288,24 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="A23" s="9">
         <v>2004</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17" t="s">
+      <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
@@ -1323,30 +1316,22 @@
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+      <c r="A27">
         <v>2005</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17" t="s">
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17" t="s">
+      <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
